--- a/数据整理/stocks/A股/上证主板/603109-神驰机电.xlsx
+++ b/数据整理/stocks/A股/上证主板/603109-神驰机电.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,13 +787,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603109-神驰机电.xlsx
+++ b/数据整理/stocks/A股/上证主板/603109-神驰机电.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.51</v>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1143,13 +1186,347 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603109-神驰机电.xlsx
+++ b/数据整理/stocks/A股/上证主板/603109-神驰机电.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银趋势优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.98</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6698</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010874</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康品质生活混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4563</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="4">
@@ -580,150 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010875</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康品质生活混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2055</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005014</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康景泰回报混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1712</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005015</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰康景泰回报混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160415</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安量化多因子混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
+      <c r="D4" t="n">
+        <v>2.52</v>
       </c>
     </row>
   </sheetData>
@@ -788,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.02</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>34.45</t>
+          <t>34.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1598</t>
+          <t>0.1234</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -826,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38.92</t>
+          <t>38.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1459</t>
+          <t>0.0977</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -864,36 +664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>34.45</t>
+          <t>38.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0608</t>
+          <t>0.0818</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -912,26 +712,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>91.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0338</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -940,36 +740,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004558</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合A</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>38.52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0386</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -988,26 +788,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>38.92</t>
+          <t>38.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1016,36 +816,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>005417</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>34.92</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0192</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1054,36 +854,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004559</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合C</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>91.12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1148,36 +948,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>14.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>34.92</t>
+          <t>34.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1234</t>
+          <t>0.1598</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1186,36 +986,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>11.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38.52</t>
+          <t>38.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0977</t>
+          <t>0.1459</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1224,36 +1024,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38.20</t>
+          <t>34.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0818</t>
+          <t>0.0608</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1272,26 +1072,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.0525</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1300,36 +1100,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>004558</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>汇安丰裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>38.52</t>
+          <t>83.41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0386</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1348,26 +1148,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>38.20</t>
+          <t>38.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1376,36 +1176,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>34.92</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0192</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1414,36 +1214,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>004559</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>汇安丰裕灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>83.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1268,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1308,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6698</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1346,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.51</v>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4563</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1520,14 +1384,150 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.52</v>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603109-神驰机电.xlsx
+++ b/数据整理/stocks/A股/上证主板/603109-神驰机电.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.52</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>010874</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>泰康品质生活混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>34.92</t>
+          <t>84.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1234</t>
+          <t>0.2236</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -626,264 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>010875</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>泰康品质生活混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38.52</t>
+          <t>84.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0977</t>
+          <t>0.1121</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>38.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0818</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0338</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>38.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>38.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>34.92</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.12</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -948,36 +737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.02</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>34.45</t>
+          <t>34.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1598</t>
+          <t>0.1234</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -986,36 +775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38.92</t>
+          <t>38.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1459</t>
+          <t>0.0977</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1024,36 +813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>34.45</t>
+          <t>38.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0608</t>
+          <t>0.0818</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1072,26 +861,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>91.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0338</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1100,36 +889,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004558</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合A</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>38.52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0386</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1148,26 +937,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>38.92</t>
+          <t>38.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1176,36 +965,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>005417</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>34.92</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0192</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1214,36 +1003,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004559</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合C</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>91.12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1252,6 +1041,366 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
